--- a/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
+++ b/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E184E373-6456-4875-95A2-9517E19252F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E5100B-C29A-446F-93BE-052FC2FD65A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -192,10 +192,6 @@
   <si>
     <t>RepaySource</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">還款金額 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">職業別 </t>
@@ -292,6 +288,22 @@
   <si>
     <t>RecordDate ASC,ActualRepayDate ASC</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際還款金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">預定還款金額 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualRepayAmt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/19 add by 智誠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -379,7 +391,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +401,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,6 +574,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -568,8 +589,14 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -928,23 +955,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
@@ -956,12 +983,12 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>13</v>
@@ -971,10 +998,10 @@
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="12"/>
@@ -982,10 +1009,10 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="12"/>
@@ -993,10 +1020,10 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="12"/>
@@ -1004,10 +1031,10 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="12"/>
@@ -1045,7 +1072,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>26</v>
@@ -1067,7 +1094,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="24">
         <v>7</v>
@@ -1086,7 +1113,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="24">
         <v>3</v>
@@ -1105,7 +1132,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="24">
         <v>3</v>
@@ -1159,10 +1186,10 @@
         <v>41</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="24">
         <v>16</v>
@@ -1170,179 +1197,202 @@
       <c r="F15" s="26">
         <v>2</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="24">
-        <v>20</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="21"/>
+      <c r="B16" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="37">
+        <v>16</v>
+      </c>
+      <c r="F16" s="38">
+        <v>2</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="21"/>
     </row>
-    <row r="18" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>10</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>48</v>
+      <c r="B18" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E18" s="24">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F18" s="26"/>
-      <c r="G18" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>11</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>51</v>
+      <c r="B19" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E19" s="24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="21"/>
+      <c r="G19" s="29" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>12</v>
       </c>
       <c r="B20" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="24">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>13</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>28</v>
+      <c r="B21" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E21" s="24">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F21" s="26"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>14</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E22" s="24">
-        <v>6</v>
-      </c>
-      <c r="F22" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="F22" s="26"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>15</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E23" s="24">
-        <v>8</v>
-      </c>
-      <c r="F23" s="26"/>
+        <v>6</v>
+      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>16</v>
       </c>
       <c r="B24" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="24">
+        <v>8</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>17</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C25" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D25" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E25" s="24">
         <v>6</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1364,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -1390,35 +1440,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>67</v>
+        <v>61</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
+++ b/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E5100B-C29A-446F-93BE-052FC2FD65A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE38EAE-8E39-4233-B377-9C593F2D1001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -303,6 +303,10 @@
   </si>
   <si>
     <t>10/19 add by 智誠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -577,6 +581,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -588,15 +601,6 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -939,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -955,10 +959,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="5" t="s">
         <v>60</v>
       </c>
@@ -970,8 +974,8 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
@@ -983,10 +987,10 @@
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="14" t="s">
         <v>54</v>
       </c>
@@ -998,10 +1002,10 @@
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15"/>
       <c r="E4" s="12"/>
@@ -1009,10 +1013,10 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15"/>
       <c r="E5" s="12"/>
@@ -1020,10 +1024,10 @@
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="12"/>
@@ -1031,10 +1035,10 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="14"/>
       <c r="D7" s="15"/>
       <c r="E7" s="12"/>
@@ -1176,7 +1180,9 @@
         <v>8</v>
       </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="21" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -1203,19 +1209,19 @@
       <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="33">
         <v>16</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="34">
         <v>2</v>
       </c>
       <c r="G16" s="21" t="s">

--- a/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
+++ b/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE38EAE-8E39-4233-B377-9C593F2D1001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9708" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -160,10 +159,6 @@
   </si>
   <si>
     <t>RecordDate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepayDate</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -266,54 +261,74 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">RecordDate &gt;= ,AND RecordDate &lt;= ,AND ActualRepayDate &gt;= ,AND ActualRepayDate &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findRecordD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findRepayD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordDate ASC,ActualRepayDate ASC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際還款金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">預定還款金額 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualRepayAmt</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/19 add by 智誠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayDate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND BormNo &gt;= ,AND BormNo &lt;= ,AND RepayDate &gt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordDate ASC,ActualRepayDate ASC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayDate ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustNoEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualRepayDate &gt;= ,AND ActualRepayDate &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">RecordDate &gt;= ,AND RecordDate &lt;= </t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RecordDate &gt;= ,AND RecordDate &lt;= ,AND ActualRepayDate &gt;= ,AND ActualRepayDate &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActualRepayDate &gt;= ,AND ActualRepayDate &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findRecordD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findRepayD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordDate ASC,ActualRepayDate ASC</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>實際還款金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">預定還款金額 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActualRepayAmt</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/19 add by 智誠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>入帳日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -605,7 +620,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -696,23 +711,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -748,23 +746,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -940,11 +921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -964,10 +945,10 @@
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -992,7 +973,7 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>13</v>
@@ -1076,7 +1057,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>26</v>
@@ -1098,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="24">
         <v>7</v>
@@ -1117,7 +1098,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="24">
         <v>3</v>
@@ -1136,7 +1117,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="24">
         <v>3</v>
@@ -1149,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>38</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>26</v>
@@ -1168,10 +1149,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>26</v>
@@ -1181,7 +1162,7 @@
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1189,13 +1170,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="24">
         <v>16</v>
@@ -1210,13 +1191,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="33">
         <v>16</v>
@@ -1225,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1233,13 +1214,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="24">
         <v>20</v>
@@ -1252,13 +1233,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="24">
         <v>30</v>
@@ -1271,20 +1252,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="24">
         <v>2</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1292,13 +1273,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="24">
         <v>10</v>
@@ -1311,13 +1292,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="24">
         <v>60</v>
@@ -1417,19 +1398,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="92" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="98.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1446,35 +1427,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
